--- a/biology/Botanique/Liste_des_parcs_du_canton_de_Genève/Liste_des_parcs_du_canton_de_Genève.xlsx
+++ b/biology/Botanique/Liste_des_parcs_du_canton_de_Genève/Liste_des_parcs_du_canton_de_Genève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste des parcs du canton de Genève (Suisse), non exhaustive,  triés par communes.
-En 2014, un recensement fédéral compte 1056 jardins historiques dignes de conservation dans le canton de Genève[1].
+En 2014, un recensement fédéral compte 1056 jardins historiques dignes de conservation dans le canton de Genève.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rive gauche
-Bois-de-la-Bâtie
+          <t>Rive gauche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bois-de-la-Bâtie
 Jardin anglais
 Parc Baud-Bovy
 Parc Bertrand
@@ -531,9 +548,43 @@
 Promenade de l'Observatoire
 Promenade de Saint-Antoine
 Promenade de la Treille
-Promenade du Pin
-Rive droite[2]
-Île Rousseau
+Promenade du Pin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genève (ville)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rive droite[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Île Rousseau
 Jardin de la Paix
 Jardin des Alpes
 Jardin du Prieuré de Saint-Jean
@@ -559,41 +610,114 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Communes de la rive droite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bellevue
-Parc Simon-Eggly
-Parc de la Mairie
-Pregny-Chambésy
-Terres de Pregny (Jardin botanique de Genève)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bellevue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parc Simon-Eggly
+Parc de la Mairie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes de la rive droite</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pregny-Chambésy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Terres de Pregny (Jardin botanique de Genève)
 Parc de l'Impératrice
-Domaine de Penthes
-Meyrin
-Bois du Lan
+Domaine de Penthes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes de la rive droite</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Meyrin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bois du Lan
 Bois de la Citadelle
 Campagne Charnaux
 Jardin botanique alpin
@@ -602,55 +726,230 @@
 Promenade de Planta
 Promenade de la Solitude
 Promenade de Vaudagne
-Terrain Jakob
-Vernier
-Parc Chauvet-Lullin
-Étang des Tritons
-Versoix
-Parc de la Mairie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Terrain Jakob</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes de la rive droite</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vernier</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Parc Chauvet-Lullin
+Étang des Tritons</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communes de la rive droite</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Versoix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Parc de la Mairie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Communes de la rive gauche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chêne-Bourg
-Parc de l'Ancienne Mairie
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Parc de l'Ancienne Mairie
 Parc de l'avenue de Thônex
 Parc Dinu Lipatti
 Parc Floquet
 Parc Floraire
 Parc Gautier
-Parc Mirany
-Cologny
-Genève-Plage
-Confignon
-Centre intercommunal de sports, loisirs et nature des Evaux (partagé avec Onex)
-Lancy
-Parc Bernasconi
+Parc Mirany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cologny</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Genève-Plage</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Confignon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Centre intercommunal de sports, loisirs et nature des Evaux (partagé avec Onex)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lancy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Parc Bernasconi
 Parc Cérésole
 Parc de la Chapelle
 Parc Chuit
@@ -666,20 +965,122 @@
 Parc En Sauvy
 Parc de Sous-Bois
 Parc de Surville
-Parc Tressy-Cordy
-Onex
-Bois-de-la-Chapelle
+Parc Tressy-Cordy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Onex</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bois-de-la-Chapelle
 Centre intercommunal de sports, loisirs et nature des Evaux (partagé avec Confignon)
 Parc Brot
 Parc du Gros-Chêne
 Parc de la Mairie
-Parc des Racettes
-Plan-les-Ouates
-Parc public de la Butte
+Parc des Racettes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Plan-les-Ouates</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Parc public de la Butte
 Parc public du Clos-des-Fontaines
-Parc public des Serves
-Thônex
-Parc Munier</t>
+Parc public des Serves</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_du_canton_de_Genève</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_du_canton_de_Gen%C3%A8ve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Communes de la rive gauche</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Thônex</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Parc Munier</t>
         </is>
       </c>
     </row>
